--- a/slides/schedule.xlsx
+++ b/slides/schedule.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brand\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brownu\RubymineProjects\atdd_training\slides\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12754"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12750"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -475,18 +475,18 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.23046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.4609375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -497,7 +497,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0.33333333333333331</v>
       </c>
@@ -511,7 +511,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0.35416666666666669</v>
       </c>
@@ -525,7 +525,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0.375</v>
       </c>
@@ -539,7 +539,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0.39583333333333298</v>
       </c>
@@ -553,7 +553,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>0.41666666666666669</v>
       </c>
@@ -567,7 +567,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0.437499999999999</v>
       </c>
@@ -581,7 +581,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>0.45833333333333198</v>
       </c>
@@ -595,7 +595,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>0.47916666666666502</v>
       </c>
@@ -609,7 +609,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>0.499999999999998</v>
       </c>
@@ -623,7 +623,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>0.52083333333333104</v>
       </c>
@@ -637,7 +637,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>0.54166666666666397</v>
       </c>
@@ -651,7 +651,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>0.562499999999997</v>
       </c>
@@ -665,7 +665,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>0.58333333333333004</v>
       </c>
@@ -679,7 +679,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>0.60416666666666297</v>
       </c>
@@ -693,7 +693,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>0.624999999999996</v>
       </c>
@@ -707,7 +707,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>0.64583333333332904</v>
       </c>
